--- a/Data/Predictions/XGBoost/exclude_previous_rating_model_3/exclude_previous_rating_model_3_predictions.xlsx
+++ b/Data/Predictions/XGBoost/exclude_previous_rating_model_3/exclude_previous_rating_model_3_predictions.xlsx
@@ -1315,7 +1315,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4875,7 +4875,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>CCC</t>
         </is>
       </c>
     </row>
@@ -5275,7 +5275,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -5355,7 +5355,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -6615,7 +6615,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -6735,7 +6735,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -7275,7 +7275,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -7495,7 +7495,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -8355,7 +8355,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -8495,7 +8495,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -8555,7 +8555,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -9575,7 +9575,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -9775,7 +9775,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -9975,7 +9975,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -10375,7 +10375,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -10555,7 +10555,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -10895,7 +10895,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -11175,7 +11175,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -11335,7 +11335,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -11415,7 +11415,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -11455,7 +11455,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -11795,7 +11795,7 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -11995,7 +11995,7 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -12095,7 +12095,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -12875,7 +12875,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -12895,7 +12895,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -12915,7 +12915,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -13055,7 +13055,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>CCC</t>
         </is>
       </c>
     </row>
@@ -13075,7 +13075,7 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -13195,7 +13195,7 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -13375,7 +13375,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -13775,7 +13775,7 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -13795,7 +13795,7 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -14655,7 +14655,7 @@
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -15995,7 +15995,7 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -16255,7 +16255,7 @@
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -16315,7 +16315,7 @@
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -17335,7 +17335,7 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -17855,7 +17855,7 @@
       </c>
       <c r="D871" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -17875,7 +17875,7 @@
       </c>
       <c r="D872" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -18255,7 +18255,7 @@
       </c>
       <c r="D891" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -18695,7 +18695,7 @@
       </c>
       <c r="D913" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -18735,7 +18735,7 @@
       </c>
       <c r="D915" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -18755,7 +18755,7 @@
       </c>
       <c r="D916" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -18915,7 +18915,7 @@
       </c>
       <c r="D924" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -18995,7 +18995,7 @@
       </c>
       <c r="D928" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19215,7 +19215,7 @@
       </c>
       <c r="D939" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19275,7 +19275,7 @@
       </c>
       <c r="D942" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19295,7 +19295,7 @@
       </c>
       <c r="D943" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19555,7 +19555,7 @@
       </c>
       <c r="D956" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19575,7 +19575,7 @@
       </c>
       <c r="D957" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19595,7 +19595,7 @@
       </c>
       <c r="D958" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19695,7 +19695,7 @@
       </c>
       <c r="D963" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19715,7 +19715,7 @@
       </c>
       <c r="D964" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19755,7 +19755,7 @@
       </c>
       <c r="D966" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19815,7 +19815,7 @@
       </c>
       <c r="D969" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -19855,7 +19855,7 @@
       </c>
       <c r="D971" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -20135,7 +20135,7 @@
       </c>
       <c r="D985" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -20255,7 +20255,7 @@
       </c>
       <c r="D991" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -20275,7 +20275,7 @@
       </c>
       <c r="D992" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -20335,7 +20335,7 @@
       </c>
       <c r="D995" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -20455,7 +20455,7 @@
       </c>
       <c r="D1001" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>CCC</t>
         </is>
       </c>
     </row>
@@ -20575,7 +20575,7 @@
       </c>
       <c r="D1007" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="D1008" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -20615,7 +20615,7 @@
       </c>
       <c r="D1009" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -20755,7 +20755,7 @@
       </c>
       <c r="D1016" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -21235,7 +21235,7 @@
       </c>
       <c r="D1040" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -21355,7 +21355,7 @@
       </c>
       <c r="D1046" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -21375,7 +21375,7 @@
       </c>
       <c r="D1047" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="D1048" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -21415,7 +21415,7 @@
       </c>
       <c r="D1049" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -21815,7 +21815,7 @@
       </c>
       <c r="D1069" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -21895,7 +21895,7 @@
       </c>
       <c r="D1073" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -21995,7 +21995,7 @@
       </c>
       <c r="D1078" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -22335,7 +22335,7 @@
       </c>
       <c r="D1095" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -22555,7 +22555,7 @@
       </c>
       <c r="D1106" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -22655,7 +22655,7 @@
       </c>
       <c r="D1111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="D1112" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>

--- a/Data/Predictions/XGBoost/exclude_previous_rating_model_3/exclude_previous_rating_model_3_predictions.xlsx
+++ b/Data/Predictions/XGBoost/exclude_previous_rating_model_3/exclude_previous_rating_model_3_predictions.xlsx
@@ -1315,7 +1315,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -4875,7 +4875,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>CCC</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5275,7 +5275,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -6635,7 +6635,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -6735,7 +6735,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -7275,7 +7275,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -7375,7 +7375,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -7495,7 +7495,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -8355,7 +8355,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -8475,7 +8475,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -8495,7 +8495,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -8555,7 +8555,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -9295,7 +9295,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -9755,7 +9755,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -9775,7 +9775,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -9975,7 +9975,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -10375,7 +10375,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -10555,7 +10555,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -10735,7 +10735,7 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -10895,7 +10895,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -11175,7 +11175,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -11335,7 +11335,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -11415,7 +11415,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>CCC</t>
         </is>
       </c>
     </row>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>CCC</t>
         </is>
       </c>
     </row>
@@ -11455,7 +11455,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -11795,7 +11795,7 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -11815,7 +11815,7 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -12015,7 +12015,7 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -12095,7 +12095,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -12875,7 +12875,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -12895,7 +12895,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -12915,7 +12915,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -13075,7 +13075,7 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>CC</t>
         </is>
       </c>
     </row>
@@ -13195,7 +13195,7 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -13375,7 +13375,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -13775,7 +13775,7 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -13975,7 +13975,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -14595,7 +14595,7 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -15295,7 +15295,7 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -15835,7 +15835,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -16075,7 +16075,7 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -16315,7 +16315,7 @@
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -17335,7 +17335,7 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="D856" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -17855,7 +17855,7 @@
       </c>
       <c r="D871" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -17875,7 +17875,7 @@
       </c>
       <c r="D872" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -18255,7 +18255,7 @@
       </c>
       <c r="D891" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -18695,7 +18695,7 @@
       </c>
       <c r="D913" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -18735,7 +18735,7 @@
       </c>
       <c r="D915" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -18755,7 +18755,7 @@
       </c>
       <c r="D916" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -18875,7 +18875,7 @@
       </c>
       <c r="D922" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -18915,7 +18915,7 @@
       </c>
       <c r="D924" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -18975,7 +18975,7 @@
       </c>
       <c r="D927" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -18995,7 +18995,7 @@
       </c>
       <c r="D928" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -19215,7 +19215,7 @@
       </c>
       <c r="D939" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -19275,7 +19275,7 @@
       </c>
       <c r="D942" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -19295,7 +19295,7 @@
       </c>
       <c r="D943" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -19415,7 +19415,7 @@
       </c>
       <c r="D949" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -19535,7 +19535,7 @@
       </c>
       <c r="D955" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -19555,7 +19555,7 @@
       </c>
       <c r="D956" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -19575,7 +19575,7 @@
       </c>
       <c r="D957" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -19595,7 +19595,7 @@
       </c>
       <c r="D958" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -19695,7 +19695,7 @@
       </c>
       <c r="D963" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -19715,7 +19715,7 @@
       </c>
       <c r="D964" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -19735,7 +19735,7 @@
       </c>
       <c r="D965" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -19755,7 +19755,7 @@
       </c>
       <c r="D966" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -19815,7 +19815,7 @@
       </c>
       <c r="D969" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -19855,7 +19855,7 @@
       </c>
       <c r="D971" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -20135,7 +20135,7 @@
       </c>
       <c r="D985" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -20255,7 +20255,7 @@
       </c>
       <c r="D991" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -20275,7 +20275,7 @@
       </c>
       <c r="D992" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -20335,7 +20335,7 @@
       </c>
       <c r="D995" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -20395,7 +20395,7 @@
       </c>
       <c r="D998" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -20575,7 +20575,7 @@
       </c>
       <c r="D1007" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -20615,7 +20615,7 @@
       </c>
       <c r="D1009" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -20755,7 +20755,7 @@
       </c>
       <c r="D1016" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -21235,7 +21235,7 @@
       </c>
       <c r="D1040" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -21355,7 +21355,7 @@
       </c>
       <c r="D1046" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -21375,7 +21375,7 @@
       </c>
       <c r="D1047" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="D1048" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -21415,7 +21415,7 @@
       </c>
       <c r="D1049" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -21815,7 +21815,7 @@
       </c>
       <c r="D1069" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -21895,7 +21895,7 @@
       </c>
       <c r="D1073" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -21995,7 +21995,7 @@
       </c>
       <c r="D1078" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -22315,7 +22315,7 @@
       </c>
       <c r="D1094" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -22335,7 +22335,7 @@
       </c>
       <c r="D1095" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -22555,7 +22555,7 @@
       </c>
       <c r="D1106" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -22655,7 +22655,7 @@
       </c>
       <c r="D1111" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="D1112" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -22695,7 +22695,7 @@
       </c>
       <c r="D1113" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="D1116" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
